--- a/electrical-design/power-considerations.xlsx
+++ b/electrical-design/power-considerations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-considerations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6C5C95-A79F-4A87-97CE-404C96D46ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A133DA0-24C0-4A12-8EFD-506039C0EAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Device</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>Drone thrust (N)</t>
+  </si>
+  <si>
+    <t>Motor thrust at 6s (N)</t>
+  </si>
+  <si>
+    <t>Required thrust (N)</t>
+  </si>
+  <si>
+    <t>My Choice</t>
   </si>
 </sst>
 </file>
@@ -145,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -153,12 +165,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,12 +221,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -502,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,7 +614,7 @@
     <col min="7" max="7" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -527,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -550,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -573,7 +668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -597,7 +692,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -622,7 +717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,7 +740,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -668,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -679,7 +774,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -690,7 +785,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -711,7 +806,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -728,217 +823,392 @@
         <v>275.39999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I16" s="1">
         <v>6</v>
       </c>
-      <c r="D14" s="1">
+      <c r="J16" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45</v>
+      </c>
+      <c r="J17" s="1">
+        <v>120</v>
+      </c>
+      <c r="K17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7">
+        <f>B17*B16</f>
+        <v>222</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C17*C16</f>
+        <v>240</v>
+      </c>
+      <c r="D18" s="1">
+        <f>D17*D16</f>
+        <v>270</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E17*E16</f>
+        <v>202.5</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F17*F16</f>
+        <v>225</v>
+      </c>
+      <c r="G18" s="1">
+        <f>G17*G16</f>
+        <v>408</v>
+      </c>
+      <c r="H18" s="1">
+        <f>H17*H16</f>
+        <v>247.5</v>
+      </c>
+      <c r="I18" s="1">
+        <f>I17*I16</f>
+        <v>270</v>
+      </c>
+      <c r="J18" s="1">
+        <f>J17*J16</f>
+        <v>816</v>
+      </c>
+      <c r="K18" s="1">
+        <f>K17*K16</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="1">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B19" s="7">
+        <v>22.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <f>60/B17</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <f>60/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <f>60/D17</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <f>60/E17</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F20" s="1">
+        <f>60/F17</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G20" s="1">
+        <f>60/G17</f>
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="1">
+        <f>60/H17</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I20" s="1">
+        <f>60/I17</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J20" s="1">
+        <f>60/J17</f>
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="1">
+        <f>60/K17</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7">
+        <v>550</v>
+      </c>
+      <c r="C21" s="1">
+        <v>671</v>
+      </c>
+      <c r="D21" s="1">
+        <v>630.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>714</v>
+      </c>
+      <c r="F21" s="1">
+        <v>782</v>
+      </c>
+      <c r="G21" s="1">
+        <v>760</v>
+      </c>
+      <c r="H21" s="1">
+        <v>805</v>
+      </c>
+      <c r="I21" s="1">
+        <v>802</v>
+      </c>
+      <c r="J21" s="1">
+        <v>961</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7">
+        <v>90.9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>112</v>
+      </c>
+      <c r="F22" s="1">
+        <v>123</v>
+      </c>
+      <c r="G22" s="1">
+        <v>152</v>
+      </c>
+      <c r="H22" s="1">
+        <v>132</v>
+      </c>
+      <c r="I22" s="1">
+        <v>137</v>
+      </c>
+      <c r="J22" s="1">
+        <v>149</v>
+      </c>
+      <c r="K22" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="1">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B15*B14</f>
-        <v>240</v>
-      </c>
-      <c r="C16" s="1">
-        <f>C15*C14</f>
-        <v>270</v>
-      </c>
-      <c r="D16" s="1">
-        <f>D15*D14</f>
-        <v>225</v>
-      </c>
-      <c r="E16" s="1">
-        <f>E15*E14</f>
-        <v>225</v>
-      </c>
-      <c r="F16" s="1">
-        <f>F15*F14</f>
-        <v>270</v>
-      </c>
-      <c r="G16" s="1">
-        <f>G15*G14</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <f>60/B15</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <f>60/C15</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D18" s="1">
-        <f>60/D15</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E18" s="1">
-        <f>60/E15</f>
-        <v>2.4</v>
-      </c>
-      <c r="F18" s="1">
-        <f>60/F15</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <f>60/G15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1">
-        <v>671</v>
-      </c>
-      <c r="C19" s="1">
-        <v>802</v>
-      </c>
-      <c r="D19" s="1">
-        <v>782</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1110</v>
-      </c>
-      <c r="F19" s="1">
-        <v>630.5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1">
-        <v>110</v>
-      </c>
-      <c r="C20" s="1">
-        <v>137</v>
-      </c>
-      <c r="D20" s="1">
-        <v>123</v>
-      </c>
-      <c r="E20" s="1">
-        <v>171</v>
-      </c>
-      <c r="F20" s="1">
-        <v>88.5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="I23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9">
+        <f>9.81*B21/1000</f>
+        <v>5.3955000000000002</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:K24" si="0">9.81*C21/1000</f>
+        <v>6.5825100000000001</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>6.1852049999999998</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>7.00434</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>7.6714200000000003</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>7.4556000000000004</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>7.8970500000000001</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>7.8676200000000005</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>9.4274100000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>10.889100000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5">
+        <v>17.069400000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f>B1*B27</f>
+        <v>68.277600000000007</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B16:G16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B18:K18">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>$C$5</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" location="attr=2301,2704,2869" xr:uid="{9F70E8F4-A24D-48B4-B5A9-60058CD0F419}"/>
-    <hyperlink ref="F21" r:id="rId2" location="attr=2811,2284,2870" xr:uid="{557DF9B9-FAEC-4CA1-ADA6-312E1300F93E}"/>
-    <hyperlink ref="G21" r:id="rId3" location="attr=7464,7465,7466" xr:uid="{4EC97789-D0A1-4E48-94A4-FD2922805FD7}"/>
-    <hyperlink ref="B21" r:id="rId4" location="attr=2812,2245,2872" xr:uid="{683BBE85-19DB-44F6-B7CC-56949D194243}"/>
-    <hyperlink ref="E21" r:id="rId5" location="attr=1394,3122,2906" xr:uid="{F57E8C37-C2C4-409F-9A93-3F79F44D93B8}"/>
-    <hyperlink ref="C21" r:id="rId6" location="attr=2297,2797,2856" xr:uid="{B6E5247B-9AA0-4629-9EFD-A0AEE0DF57DD}"/>
+    <hyperlink ref="F23" r:id="rId1" location="attr=2301,2704,2869" xr:uid="{9F70E8F4-A24D-48B4-B5A9-60058CD0F419}"/>
+    <hyperlink ref="D23" r:id="rId2" location="attr=2811,2284,2870" xr:uid="{557DF9B9-FAEC-4CA1-ADA6-312E1300F93E}"/>
+    <hyperlink ref="B23" r:id="rId3" location="attr=7464,7465,7466" xr:uid="{4EC97789-D0A1-4E48-94A4-FD2922805FD7}"/>
+    <hyperlink ref="C23" r:id="rId4" location="attr=2812,2245,2872" xr:uid="{683BBE85-19DB-44F6-B7CC-56949D194243}"/>
+    <hyperlink ref="K23" r:id="rId5" location="attr=1394,3122,2906" xr:uid="{F57E8C37-C2C4-409F-9A93-3F79F44D93B8}"/>
+    <hyperlink ref="I23" r:id="rId6" location="attr=2297,2797,2856" xr:uid="{B6E5247B-9AA0-4629-9EFD-A0AEE0DF57DD}"/>
+    <hyperlink ref="H23" r:id="rId7" location="attr=2306,2744,2883" xr:uid="{4BE7059D-BA27-4293-8CE8-67450B8CC6EE}"/>
+    <hyperlink ref="E23" r:id="rId8" location="attr=2313,2286,2892" xr:uid="{6BFC6C42-4E38-4985-99C6-040A919BC3C6}"/>
+    <hyperlink ref="G23" r:id="rId9" location="attr=3048,2727,2866" xr:uid="{42BDAC15-06CF-48E7-A1CE-DF3EC0F94F14}"/>
+    <hyperlink ref="J23" r:id="rId10" location="attr=7455,7453,7454" xr:uid="{D936727B-40DD-4A69-9100-BEBC108837A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/electrical-design/power-considerations.xlsx
+++ b/electrical-design/power-considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A133DA0-24C0-4A12-8EFD-506039C0EAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76440C28-B0AF-43FF-B1FA-92E7C85535DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Device</t>
   </si>
@@ -89,9 +89,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Battery</t>
-  </si>
-  <si>
     <t>Oak-D Lite Y-adapter</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Max Power Draw (W)</t>
   </si>
   <si>
-    <t>Nom. Power Draw (W)</t>
-  </si>
-  <si>
     <t>Cost (€ tax incl.)</t>
   </si>
   <si>
@@ -126,13 +120,16 @@
   </si>
   <si>
     <t>My Choice</t>
+  </si>
+  <si>
+    <t>3.7Ah-60C-6S battery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +141,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,48 +235,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -294,10 +268,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,7 +580,7 @@
     <col min="3" max="3" width="9.90625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
     <col min="7" max="7" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -636,12 +606,9 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -659,12 +626,9 @@
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="F4" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="G4" s="1">
         <v>46</v>
       </c>
     </row>
@@ -685,10 +649,7 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
         <v>23.4</v>
       </c>
     </row>
@@ -705,14 +666,11 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
         <f>B1*890</f>
         <v>3560</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
         <f>B1*35</f>
         <v>140</v>
       </c>
@@ -731,18 +689,15 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="F7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="G7" s="1">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -756,34 +711,35 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B9" s="1">
+        <v>222</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22.2</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -801,10 +757,7 @@
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -813,400 +766,399 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <f>SUM(E4:E11)</f>
+        <v>3570.9</v>
+      </c>
       <c r="F12" s="1">
-        <f>SUM(F4:F11)</f>
-        <v>3570.9</v>
-      </c>
-      <c r="G12" s="1">
-        <f>SUM(G3:G10)</f>
+        <f>SUM(F3:F10)</f>
         <v>275.39999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1">
+        <v>120</v>
+      </c>
+      <c r="K15" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <v>3.7</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" ref="B16:K16" si="0">B15*B14</f>
+        <v>222</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="D16" s="1">
-        <v>4.5</v>
+        <f t="shared" si="0"/>
+        <v>270</v>
       </c>
       <c r="E16" s="1">
-        <v>4.5</v>
+        <f t="shared" si="0"/>
+        <v>202.5</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
       <c r="G16" s="1">
-        <v>5.0999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>408</v>
       </c>
       <c r="H16" s="1">
-        <v>5.5</v>
+        <f t="shared" si="0"/>
+        <v>247.5</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>270</v>
       </c>
       <c r="J16" s="1">
-        <v>6.8</v>
+        <f t="shared" si="0"/>
+        <v>816</v>
       </c>
       <c r="K16" s="1">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B17" s="7">
-        <v>60</v>
+        <v>22.2</v>
       </c>
       <c r="C17" s="1">
-        <v>60</v>
+        <v>22.2</v>
       </c>
       <c r="D17" s="1">
-        <v>60</v>
+        <v>22.2</v>
       </c>
       <c r="E17" s="1">
-        <v>45</v>
+        <v>22.2</v>
       </c>
       <c r="F17" s="1">
-        <v>45</v>
+        <v>22.2</v>
       </c>
       <c r="G17" s="1">
-        <v>80</v>
+        <v>22.2</v>
       </c>
       <c r="H17" s="1">
-        <v>45</v>
+        <v>22.2</v>
       </c>
       <c r="I17" s="1">
-        <v>45</v>
+        <v>22.2</v>
       </c>
       <c r="J17" s="1">
-        <v>120</v>
+        <v>22.2</v>
       </c>
       <c r="K17" s="1">
-        <v>25</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7">
-        <f>B17*B16</f>
-        <v>222</v>
+        <f t="shared" ref="B18:K18" si="1">60/B15</f>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <f>C17*C16</f>
-        <v>240</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f>D17*D16</f>
-        <v>270</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <f>E17*E16</f>
-        <v>202.5</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F18" s="1">
-        <f>F17*F16</f>
-        <v>225</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G18" s="1">
-        <f>G17*G16</f>
-        <v>408</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="H18" s="1">
-        <f>H17*H16</f>
-        <v>247.5</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I18" s="1">
-        <f>I17*I16</f>
-        <v>270</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J18" s="1">
-        <f>J17*J16</f>
-        <v>816</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="K18" s="1">
-        <f>K17*K16</f>
-        <v>225</v>
+        <f t="shared" si="1"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="7">
-        <v>22.2</v>
+        <v>550</v>
       </c>
       <c r="C19" s="1">
-        <v>22.2</v>
+        <v>671</v>
       </c>
       <c r="D19" s="1">
-        <v>22.2</v>
+        <v>630.5</v>
       </c>
       <c r="E19" s="1">
-        <v>22.2</v>
+        <v>714</v>
       </c>
       <c r="F19" s="1">
-        <v>22.2</v>
+        <v>782</v>
       </c>
       <c r="G19" s="1">
-        <v>22.2</v>
+        <v>760</v>
       </c>
       <c r="H19" s="1">
-        <v>22.2</v>
+        <v>805</v>
       </c>
       <c r="I19" s="1">
-        <v>22.2</v>
+        <v>802</v>
       </c>
       <c r="J19" s="1">
-        <v>22.2</v>
+        <v>961</v>
       </c>
       <c r="K19" s="1">
-        <v>22.2</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
-        <f>60/B17</f>
-        <v>1</v>
+        <v>90.9</v>
       </c>
       <c r="C20" s="1">
-        <f>60/C17</f>
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1">
-        <f>60/D17</f>
-        <v>1</v>
+        <v>88.5</v>
       </c>
       <c r="E20" s="1">
-        <f>60/E17</f>
-        <v>1.3333333333333333</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1">
-        <f>60/F17</f>
-        <v>1.3333333333333333</v>
+        <v>123</v>
       </c>
       <c r="G20" s="1">
-        <f>60/G17</f>
-        <v>0.75</v>
+        <v>152</v>
       </c>
       <c r="H20" s="1">
-        <f>60/H17</f>
-        <v>1.3333333333333333</v>
+        <v>132</v>
       </c>
       <c r="I20" s="1">
-        <f>60/I17</f>
-        <v>1.3333333333333333</v>
+        <v>137</v>
       </c>
       <c r="J20" s="1">
-        <f>60/J17</f>
-        <v>0.5</v>
+        <v>149</v>
       </c>
       <c r="K20" s="1">
-        <f>60/K17</f>
-        <v>2.4</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7">
-        <v>550</v>
-      </c>
-      <c r="C21" s="1">
-        <v>671</v>
-      </c>
-      <c r="D21" s="1">
-        <v>630.5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>714</v>
-      </c>
-      <c r="F21" s="1">
-        <v>782</v>
-      </c>
-      <c r="G21" s="1">
-        <v>760</v>
-      </c>
-      <c r="H21" s="1">
-        <v>805</v>
-      </c>
-      <c r="I21" s="1">
-        <v>802</v>
-      </c>
-      <c r="J21" s="1">
-        <v>961</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1110</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7">
-        <v>90.9</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="9">
+        <f>9.81*B19/1000</f>
+        <v>5.3955000000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>110</v>
+        <f t="shared" ref="C22:K22" si="2">9.81*C19/1000</f>
+        <v>6.5825100000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>88.5</v>
+        <f t="shared" si="2"/>
+        <v>6.1852049999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>112</v>
+        <f t="shared" si="2"/>
+        <v>7.00434</v>
       </c>
       <c r="F22" s="1">
-        <v>123</v>
+        <f t="shared" si="2"/>
+        <v>7.6714200000000003</v>
       </c>
       <c r="G22" s="1">
-        <v>152</v>
+        <f t="shared" si="2"/>
+        <v>7.4556000000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>132</v>
+        <f t="shared" si="2"/>
+        <v>7.8970500000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>137</v>
+        <f t="shared" si="2"/>
+        <v>7.8676200000000005</v>
       </c>
       <c r="J22" s="1">
-        <v>149</v>
+        <f t="shared" si="2"/>
+        <v>9.4274100000000001</v>
       </c>
       <c r="K22" s="1">
-        <v>171</v>
+        <f t="shared" si="2"/>
+        <v>10.889100000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5">
+        <v>17.069400000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9">
-        <f>9.81*B21/1000</f>
-        <v>5.3955000000000002</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:K24" si="0">9.81*C21/1000</f>
-        <v>6.5825100000000001</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>6.1852049999999998</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>7.00434</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>7.6714200000000003</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>7.4556000000000004</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>7.8970500000000001</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>7.8676200000000005</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>9.4274100000000001</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>10.889100000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="5">
-        <v>17.069400000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <f>B1*B27</f>
+      <c r="B26">
+        <f>B1*B25</f>
         <v>68.277600000000007</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:K18">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="B16:K16">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>$C$5</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" location="attr=2301,2704,2869" xr:uid="{9F70E8F4-A24D-48B4-B5A9-60058CD0F419}"/>
-    <hyperlink ref="D23" r:id="rId2" location="attr=2811,2284,2870" xr:uid="{557DF9B9-FAEC-4CA1-ADA6-312E1300F93E}"/>
-    <hyperlink ref="B23" r:id="rId3" location="attr=7464,7465,7466" xr:uid="{4EC97789-D0A1-4E48-94A4-FD2922805FD7}"/>
-    <hyperlink ref="C23" r:id="rId4" location="attr=2812,2245,2872" xr:uid="{683BBE85-19DB-44F6-B7CC-56949D194243}"/>
-    <hyperlink ref="K23" r:id="rId5" location="attr=1394,3122,2906" xr:uid="{F57E8C37-C2C4-409F-9A93-3F79F44D93B8}"/>
-    <hyperlink ref="I23" r:id="rId6" location="attr=2297,2797,2856" xr:uid="{B6E5247B-9AA0-4629-9EFD-A0AEE0DF57DD}"/>
-    <hyperlink ref="H23" r:id="rId7" location="attr=2306,2744,2883" xr:uid="{4BE7059D-BA27-4293-8CE8-67450B8CC6EE}"/>
-    <hyperlink ref="E23" r:id="rId8" location="attr=2313,2286,2892" xr:uid="{6BFC6C42-4E38-4985-99C6-040A919BC3C6}"/>
-    <hyperlink ref="G23" r:id="rId9" location="attr=3048,2727,2866" xr:uid="{42BDAC15-06CF-48E7-A1CE-DF3EC0F94F14}"/>
-    <hyperlink ref="J23" r:id="rId10" location="attr=7455,7453,7454" xr:uid="{D936727B-40DD-4A69-9100-BEBC108837A0}"/>
+    <hyperlink ref="F21" r:id="rId1" location="attr=2301,2704,2869" xr:uid="{9F70E8F4-A24D-48B4-B5A9-60058CD0F419}"/>
+    <hyperlink ref="D21" r:id="rId2" location="attr=2811,2284,2870" xr:uid="{557DF9B9-FAEC-4CA1-ADA6-312E1300F93E}"/>
+    <hyperlink ref="B21" r:id="rId3" location="attr=7464,7465,7466" xr:uid="{4EC97789-D0A1-4E48-94A4-FD2922805FD7}"/>
+    <hyperlink ref="C21" r:id="rId4" location="attr=2812,2245,2872" xr:uid="{683BBE85-19DB-44F6-B7CC-56949D194243}"/>
+    <hyperlink ref="K21" r:id="rId5" location="attr=1394,3122,2906" xr:uid="{F57E8C37-C2C4-409F-9A93-3F79F44D93B8}"/>
+    <hyperlink ref="I21" r:id="rId6" location="attr=2297,2797,2856" xr:uid="{B6E5247B-9AA0-4629-9EFD-A0AEE0DF57DD}"/>
+    <hyperlink ref="H21" r:id="rId7" location="attr=2306,2744,2883" xr:uid="{4BE7059D-BA27-4293-8CE8-67450B8CC6EE}"/>
+    <hyperlink ref="E21" r:id="rId8" location="attr=2313,2286,2892" xr:uid="{6BFC6C42-4E38-4985-99C6-040A919BC3C6}"/>
+    <hyperlink ref="G21" r:id="rId9" location="attr=3048,2727,2866" xr:uid="{42BDAC15-06CF-48E7-A1CE-DF3EC0F94F14}"/>
+    <hyperlink ref="J21" r:id="rId10" location="attr=7455,7453,7454" xr:uid="{D936727B-40DD-4A69-9100-BEBC108837A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>

--- a/electrical-design/power-considerations.xlsx
+++ b/electrical-design/power-considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76440C28-B0AF-43FF-B1FA-92E7C85535DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEB24FC-A002-4AEB-9536-7C3E19346802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Speedy Bee V3 F4 Stack</t>
-  </si>
-  <si>
     <t>Raspberry Pi 4B</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>3.7Ah-60C-6S battery</t>
+  </si>
+  <si>
+    <t>SpeedyBee F7 V3 BL32 50A Stack</t>
   </si>
 </sst>
 </file>
@@ -570,12 +570,12 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="9.90625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -586,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -597,27 +597,27 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>2.5</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -644,27 +644,27 @@
         <v>200</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="1">
-        <v>23.4</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <f>B1*890</f>
@@ -677,10 +677,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>2.1</v>
@@ -697,19 +697,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>222</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>22.2</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -743,25 +743,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -772,12 +772,12 @@
       </c>
       <c r="F12" s="1">
         <f>SUM(F3:F10)</f>
-        <v>275.39999999999998</v>
+        <v>281.89999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>3.7</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7">
         <v>60</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="7">
         <f t="shared" ref="B16:K16" si="0">B15*B14</f>
@@ -892,7 +892,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="7">
         <v>22.2</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7">
         <f t="shared" ref="B18:K18" si="1">60/B15</f>
@@ -972,7 +972,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="7">
         <v>550</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7">
         <v>90.9</v>
@@ -1042,42 +1042,42 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="9">
         <f>9.81*B19/1000</f>
@@ -1122,12 +1122,12 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>17.069400000000002</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <f>B1*B25</f>

--- a/electrical-design/power-considerations.xlsx
+++ b/electrical-design/power-considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEB24FC-A002-4AEB-9536-7C3E19346802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC829A7-88BB-4F90-B1CC-8D876B2502E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Device</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Motor thrust at 6s (N)</t>
   </si>
   <si>
-    <t>Required thrust (N)</t>
-  </si>
-  <si>
     <t>My Choice</t>
   </si>
   <si>
@@ -123,6 +120,15 @@
   </si>
   <si>
     <t>SpeedyBee F7 V3 BL32 50A Stack</t>
+  </si>
+  <si>
+    <t>Buck converter</t>
+  </si>
+  <si>
+    <t>22.2-&gt;5</t>
+  </si>
+  <si>
+    <t>Drone weight (N)</t>
   </si>
 </sst>
 </file>
@@ -232,14 +238,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,7 +640,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -717,7 +723,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>222</v>
@@ -728,437 +734,427 @@
       <c r="D9" s="1">
         <v>22.2</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>550</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <f>SUM(E4:E11)</f>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <f>SUM(E4:E12)</f>
         <v>3570.9</v>
       </c>
-      <c r="F12" s="1">
-        <f>SUM(F3:F10)</f>
-        <v>281.89999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="K14" s="1">
-        <v>9</v>
+      <c r="F13" s="1">
+        <f>SUM(F3:F12)</f>
+        <v>1081.9000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3.7</v>
       </c>
       <c r="C15" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>60</v>
+        <v>4.5</v>
       </c>
       <c r="E15" s="1">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="F15" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>80</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>45</v>
+        <v>5.5</v>
       </c>
       <c r="I15" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
-        <v>120</v>
+        <v>6.8</v>
       </c>
       <c r="K15" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1">
+        <v>120</v>
+      </c>
+      <c r="K16" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="7">
-        <f t="shared" ref="B16:K16" si="0">B15*B14</f>
+      <c r="B17" s="7">
+        <f t="shared" ref="B17:K17" si="0">B16*B15</f>
         <v>222</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>202.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
         <v>247.5</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>816</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>22.2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>22.2</v>
-      </c>
-    </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7">
+        <v>22.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
-        <f t="shared" ref="B18:K18" si="1">60/B15</f>
+      <c r="B19" s="7">
+        <f t="shared" ref="B19:K19" si="1">60/B16</f>
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7">
-        <v>550</v>
-      </c>
-      <c r="C19" s="1">
-        <v>671</v>
-      </c>
-      <c r="D19" s="1">
-        <v>630.5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>714</v>
-      </c>
-      <c r="F19" s="1">
-        <v>782</v>
-      </c>
-      <c r="G19" s="1">
-        <v>760</v>
-      </c>
-      <c r="H19" s="1">
-        <v>805</v>
-      </c>
-      <c r="I19" s="1">
-        <v>802</v>
-      </c>
-      <c r="J19" s="1">
-        <v>961</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1110</v>
-      </c>
-    </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B20" s="7">
-        <v>90.9</v>
+        <v>550</v>
       </c>
       <c r="C20" s="1">
-        <v>110</v>
+        <v>671</v>
       </c>
       <c r="D20" s="1">
-        <v>88.5</v>
+        <v>630.5</v>
       </c>
       <c r="E20" s="1">
-        <v>112</v>
+        <v>714</v>
       </c>
       <c r="F20" s="1">
-        <v>123</v>
+        <v>782</v>
       </c>
       <c r="G20" s="1">
-        <v>152</v>
+        <v>760</v>
       </c>
       <c r="H20" s="1">
-        <v>132</v>
+        <v>805</v>
       </c>
       <c r="I20" s="1">
-        <v>137</v>
+        <v>802</v>
       </c>
       <c r="J20" s="1">
-        <v>149</v>
+        <v>961</v>
       </c>
       <c r="K20" s="1">
-        <v>171</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>90.9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>110</v>
+      </c>
+      <c r="D21" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1">
+        <v>123</v>
+      </c>
+      <c r="G21" s="1">
+        <v>152</v>
+      </c>
+      <c r="H21" s="1">
+        <v>132</v>
+      </c>
+      <c r="I21" s="1">
+        <v>137</v>
+      </c>
+      <c r="J21" s="1">
+        <v>149</v>
+      </c>
+      <c r="K21" s="1">
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="9">
-        <f>9.81*B19/1000</f>
-        <v>5.3955000000000002</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ref="C22:K22" si="2">9.81*C19/1000</f>
-        <v>6.5825100000000001</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="2"/>
-        <v>6.1852049999999998</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="2"/>
-        <v>7.00434</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6714200000000003</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="2"/>
-        <v>7.4556000000000004</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8970500000000001</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8676200000000005</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="2"/>
-        <v>9.4274100000000001</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="2"/>
-        <v>10.889100000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>17.069400000000002</v>
+      <c r="A25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <f>F13*9.81/1000</f>
+        <v>10.613439000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>17.069400000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <f>B1*B25</f>
+      <c r="B27">
+        <f>B1*B26</f>
         <v>68.277600000000007</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B16:K16">
+  <conditionalFormatting sqref="B17:K17">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>$C$5</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1" location="attr=2301,2704,2869" xr:uid="{9F70E8F4-A24D-48B4-B5A9-60058CD0F419}"/>
-    <hyperlink ref="D21" r:id="rId2" location="attr=2811,2284,2870" xr:uid="{557DF9B9-FAEC-4CA1-ADA6-312E1300F93E}"/>
-    <hyperlink ref="B21" r:id="rId3" location="attr=7464,7465,7466" xr:uid="{4EC97789-D0A1-4E48-94A4-FD2922805FD7}"/>
-    <hyperlink ref="C21" r:id="rId4" location="attr=2812,2245,2872" xr:uid="{683BBE85-19DB-44F6-B7CC-56949D194243}"/>
-    <hyperlink ref="K21" r:id="rId5" location="attr=1394,3122,2906" xr:uid="{F57E8C37-C2C4-409F-9A93-3F79F44D93B8}"/>
-    <hyperlink ref="I21" r:id="rId6" location="attr=2297,2797,2856" xr:uid="{B6E5247B-9AA0-4629-9EFD-A0AEE0DF57DD}"/>
-    <hyperlink ref="H21" r:id="rId7" location="attr=2306,2744,2883" xr:uid="{4BE7059D-BA27-4293-8CE8-67450B8CC6EE}"/>
-    <hyperlink ref="E21" r:id="rId8" location="attr=2313,2286,2892" xr:uid="{6BFC6C42-4E38-4985-99C6-040A919BC3C6}"/>
-    <hyperlink ref="G21" r:id="rId9" location="attr=3048,2727,2866" xr:uid="{42BDAC15-06CF-48E7-A1CE-DF3EC0F94F14}"/>
-    <hyperlink ref="J21" r:id="rId10" location="attr=7455,7453,7454" xr:uid="{D936727B-40DD-4A69-9100-BEBC108837A0}"/>
+    <hyperlink ref="F22" r:id="rId1" location="attr=2301,2704,2869" xr:uid="{9F70E8F4-A24D-48B4-B5A9-60058CD0F419}"/>
+    <hyperlink ref="D22" r:id="rId2" location="attr=2811,2284,2870" xr:uid="{557DF9B9-FAEC-4CA1-ADA6-312E1300F93E}"/>
+    <hyperlink ref="B22" r:id="rId3" location="attr=7464,7465,7466" xr:uid="{4EC97789-D0A1-4E48-94A4-FD2922805FD7}"/>
+    <hyperlink ref="C22" r:id="rId4" location="attr=2812,2245,2872" xr:uid="{683BBE85-19DB-44F6-B7CC-56949D194243}"/>
+    <hyperlink ref="K22" r:id="rId5" location="attr=1394,3122,2906" xr:uid="{F57E8C37-C2C4-409F-9A93-3F79F44D93B8}"/>
+    <hyperlink ref="I22" r:id="rId6" location="attr=2297,2797,2856" xr:uid="{B6E5247B-9AA0-4629-9EFD-A0AEE0DF57DD}"/>
+    <hyperlink ref="H22" r:id="rId7" location="attr=2306,2744,2883" xr:uid="{4BE7059D-BA27-4293-8CE8-67450B8CC6EE}"/>
+    <hyperlink ref="E22" r:id="rId8" location="attr=2313,2286,2892" xr:uid="{6BFC6C42-4E38-4985-99C6-040A919BC3C6}"/>
+    <hyperlink ref="G22" r:id="rId9" location="attr=3048,2727,2866" xr:uid="{42BDAC15-06CF-48E7-A1CE-DF3EC0F94F14}"/>
+    <hyperlink ref="J22" r:id="rId10" location="attr=7455,7453,7454" xr:uid="{D936727B-40DD-4A69-9100-BEBC108837A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>

--- a/electrical-design/power-considerations.xlsx
+++ b/electrical-design/power-considerations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C5E395-4419-431C-B96C-A68F6FDB84F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198EF880-20DD-4B61-8306-E55899439A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Number of motors</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Drone thrust (N)</t>
+  </si>
+  <si>
+    <t>Upwards Acceleration (g)</t>
+  </si>
+  <si>
+    <t>Net thrust (N)</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1199,6 +1205,24 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <f>B28-B26</f>
+        <v>55.424560999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <f>1000*(B28-B26)/F14/9.81</f>
+        <v>4.4073658979221317</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/electrical-design/power-considerations.xlsx
+++ b/electrical-design/power-considerations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelThamm\Git\drone-project\electrical-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198EF880-20DD-4B61-8306-E55899439A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E46D887-B324-4941-9570-374CD21281F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Number of motors</t>
   </si>
@@ -135,13 +135,28 @@
   </si>
   <si>
     <t>Net thrust (N)</t>
+  </si>
+  <si>
+    <t>137,42,42</t>
+  </si>
+  <si>
+    <t>Size (L,W,H mm)</t>
+  </si>
+  <si>
+    <t>138,44,32</t>
+  </si>
+  <si>
+    <t>141,44,35</t>
+  </si>
+  <si>
+    <t>CUAV v5 Nano flight controller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,6 +185,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,23 +211,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </right>
       <top/>
       <bottom/>
@@ -213,22 +235,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,16 +266,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -261,8 +275,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,23 +509,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +542,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -525,7 +555,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -550,7 +580,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -575,24 +605,24 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5">
-        <v>200</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5">
-        <v>29.9</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -600,25 +630,24 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>50</v>
       </c>
       <c r="C6" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
-        <v>3560</v>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="5">
-        <f>B1*35</f>
-        <v>140</v>
+        <v>29.9</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -626,24 +655,25 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="5">
-        <v>4.5</v>
+        <v>3560</v>
       </c>
       <c r="F7" s="5">
-        <v>61</v>
+        <f>B1*35</f>
+        <v>140</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -651,24 +681,24 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
+      <c r="C8" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.5</v>
       </c>
       <c r="F8" s="5">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -676,24 +706,24 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5">
-        <v>222</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
-        <v>22.2</v>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="5">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -701,24 +731,24 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
+        <v>222</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5">
+        <v>22.2</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="5">
-        <v>50</v>
+        <v>473</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -726,24 +756,34 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5">
+        <v>50</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -758,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5">
-        <v>200</v>
+        <v>0.53</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -766,9 +806,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
@@ -791,20 +831,24 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <f t="shared" ref="E14:F14" si="0">SUM(E4:E13)</f>
-        <v>3570.9</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>1281.9000000000001</v>
+        <v>200</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -812,357 +856,242 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15:F15" si="0">SUM(E4:E14)</f>
+        <v>3570.9</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>1246.4299999999998</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="6">
         <v>3.7</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F16" s="7">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6">
+        <v>100</v>
+      </c>
+      <c r="D18" s="11">
+        <v>70</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:D19" si="1">B17*B18</f>
+        <v>222</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" ref="B21:D21" si="2">60/B18</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="7">
-        <v>6.8</v>
-      </c>
-      <c r="K16" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="8">
-        <v>60</v>
-      </c>
-      <c r="C17" s="7">
-        <v>60</v>
-      </c>
-      <c r="D17" s="7">
-        <v>60</v>
-      </c>
-      <c r="E17" s="7">
-        <v>45</v>
-      </c>
-      <c r="F17" s="7">
-        <v>45</v>
-      </c>
-      <c r="G17" s="7">
-        <v>80</v>
-      </c>
-      <c r="H17" s="7">
-        <v>45</v>
-      </c>
-      <c r="I17" s="7">
-        <v>45</v>
-      </c>
-      <c r="J17" s="7">
-        <v>120</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="B22" s="6">
+        <v>550</v>
+      </c>
+      <c r="C22" s="6">
+        <v>418</v>
+      </c>
+      <c r="D22" s="11">
+        <v>473</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="8">
-        <f t="shared" ref="B18:K18" si="1">B16*B17</f>
-        <v>222</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="1"/>
-        <v>202.5</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>408</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="1"/>
-        <v>247.5</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="1"/>
-        <v>816</v>
-      </c>
-      <c r="K18" s="7">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="8">
-        <v>22.2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="F19" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="H19" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="J19" s="7">
-        <v>22.2</v>
-      </c>
-      <c r="K19" s="7">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="8">
-        <f t="shared" ref="B20:K20" si="2">60/B17</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="8">
-        <v>550</v>
-      </c>
-      <c r="C21" s="7">
-        <v>671</v>
-      </c>
-      <c r="D21" s="7">
-        <v>630.5</v>
-      </c>
-      <c r="E21" s="7">
-        <v>714</v>
-      </c>
-      <c r="F21" s="7">
-        <v>782</v>
-      </c>
-      <c r="G21" s="7">
-        <v>760</v>
-      </c>
-      <c r="H21" s="7">
-        <v>805</v>
-      </c>
-      <c r="I21" s="7">
-        <v>802</v>
-      </c>
-      <c r="J21" s="7">
-        <v>961</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="B23" s="6">
         <v>90.9</v>
       </c>
-      <c r="C22" s="7">
-        <v>110</v>
-      </c>
-      <c r="D22" s="7">
-        <v>88.5</v>
-      </c>
-      <c r="E22" s="7">
-        <v>112</v>
-      </c>
-      <c r="F22" s="7">
-        <v>123</v>
-      </c>
-      <c r="G22" s="7">
-        <v>152</v>
-      </c>
-      <c r="H22" s="7">
-        <v>132</v>
-      </c>
-      <c r="I22" s="7">
-        <v>137</v>
-      </c>
-      <c r="J22" s="7">
-        <v>149</v>
-      </c>
-      <c r="K22" s="7">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="6">
+        <v>68.3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="11" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2">
-        <f>F14*9.81/1000</f>
-        <v>12.575439000000003</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1171,13 +1100,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2">
-        <v>17</v>
-      </c>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1188,13 +1113,13 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
-        <f>B1*B27</f>
-        <v>68</v>
+        <f>F15*9.81/1000</f>
+        <v>12.2274783</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1206,36 +1131,64 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B1*B29</f>
+        <v>68</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
-        <f>B28-B26</f>
-        <v>55.424560999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B31">
+        <f>B30-B28</f>
+        <v>55.772521699999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <f>1000*(B28-B26)/F14/9.81</f>
-        <v>4.4073658979221317</v>
+      <c r="B32">
+        <f>1000*(B30-B28)/F15/9.81</f>
+        <v>4.5612447907595142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" location="attr=7464,7465,7466" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C23" r:id="rId2" location="attr=2812,2245,2872" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D23" r:id="rId3" location="attr=2811,2284,2870" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E23" r:id="rId4" location="attr=2313,2286,2892" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F23" r:id="rId5" location="attr=2301,2704,2869" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G23" r:id="rId6" location="attr=3048,2727,2866" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H23" r:id="rId7" location="attr=2306,2744,2883" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I23" r:id="rId8" location="attr=2297,2797,2856" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J23" r:id="rId9" location="attr=7455,7453,7454" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K23" r:id="rId10" location="attr=1394,3122,2906" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B25" r:id="rId1" location="attr=7464,7465,7466" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
